--- a/natmiOut/OldD7/LR-pairs_lrc2p/Calr-Lrp1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Calr-Lrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>86.1241236566363</v>
+        <v>93.32574466666667</v>
       </c>
       <c r="H2">
-        <v>86.1241236566363</v>
+        <v>279.977234</v>
       </c>
       <c r="I2">
-        <v>0.2259519328306927</v>
+        <v>0.2327963689879921</v>
       </c>
       <c r="J2">
-        <v>0.2259519328306927</v>
+        <v>0.2327963689879922</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N2">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q2">
-        <v>587.4855661164382</v>
+        <v>758.8534681089186</v>
       </c>
       <c r="R2">
-        <v>587.4855661164382</v>
+        <v>6829.681212980267</v>
       </c>
       <c r="S2">
-        <v>0.004213553462002726</v>
+        <v>0.004867761769680494</v>
       </c>
       <c r="T2">
-        <v>0.004213553462002726</v>
+        <v>0.004867761769680496</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>86.1241236566363</v>
+        <v>93.32574466666667</v>
       </c>
       <c r="H3">
-        <v>86.1241236566363</v>
+        <v>279.977234</v>
       </c>
       <c r="I3">
-        <v>0.2259519328306927</v>
+        <v>0.2327963689879921</v>
       </c>
       <c r="J3">
-        <v>0.2259519328306927</v>
+        <v>0.2327963689879922</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P3">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q3">
-        <v>20900.15213595203</v>
+        <v>22713.28363985821</v>
       </c>
       <c r="R3">
-        <v>20900.15213595203</v>
+        <v>204419.5527587239</v>
       </c>
       <c r="S3">
-        <v>0.1498996970614428</v>
+        <v>0.1456972372301817</v>
       </c>
       <c r="T3">
-        <v>0.1498996970614428</v>
+        <v>0.1456972372301817</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>86.1241236566363</v>
+        <v>93.32574466666667</v>
       </c>
       <c r="H4">
-        <v>86.1241236566363</v>
+        <v>279.977234</v>
       </c>
       <c r="I4">
-        <v>0.2259519328306927</v>
+        <v>0.2327963689879921</v>
       </c>
       <c r="J4">
-        <v>0.2259519328306927</v>
+        <v>0.2327963689879922</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N4">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q4">
-        <v>7606.605772264823</v>
+        <v>9700.524125076345</v>
       </c>
       <c r="R4">
-        <v>7606.605772264823</v>
+        <v>87304.71712568712</v>
       </c>
       <c r="S4">
-        <v>0.0545559617705807</v>
+        <v>0.06222524171838201</v>
       </c>
       <c r="T4">
-        <v>0.0545559617705807</v>
+        <v>0.06222524171838204</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>86.1241236566363</v>
+        <v>93.32574466666667</v>
       </c>
       <c r="H5">
-        <v>86.1241236566363</v>
+        <v>279.977234</v>
       </c>
       <c r="I5">
-        <v>0.2259519328306927</v>
+        <v>0.2327963689879921</v>
       </c>
       <c r="J5">
-        <v>0.2259519328306927</v>
+        <v>0.2327963689879922</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N5">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q5">
-        <v>2409.687915455981</v>
+        <v>3118.829667362003</v>
       </c>
       <c r="R5">
-        <v>2409.687915455981</v>
+        <v>28069.46700625803</v>
       </c>
       <c r="S5">
-        <v>0.01728272053666645</v>
+        <v>0.02000612826974792</v>
       </c>
       <c r="T5">
-        <v>0.01728272053666645</v>
+        <v>0.02000612826974793</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>164.180771392012</v>
+        <v>164.7897643333334</v>
       </c>
       <c r="H6">
-        <v>164.180771392012</v>
+        <v>494.369293</v>
       </c>
       <c r="I6">
-        <v>0.4307383466397768</v>
+        <v>0.4110597662007076</v>
       </c>
       <c r="J6">
-        <v>0.4307383466397768</v>
+        <v>0.4110597662007077</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N6">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q6">
-        <v>1119.939795395961</v>
+        <v>1339.944134599187</v>
       </c>
       <c r="R6">
-        <v>1119.939795395961</v>
+        <v>12059.49721139269</v>
       </c>
       <c r="S6">
-        <v>0.008032412154939642</v>
+        <v>0.008595241513705986</v>
       </c>
       <c r="T6">
-        <v>0.008032412154939642</v>
+        <v>0.008595241513705987</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>164.180771392012</v>
+        <v>164.7897643333334</v>
       </c>
       <c r="H7">
-        <v>164.180771392012</v>
+        <v>494.369293</v>
       </c>
       <c r="I7">
-        <v>0.4307383466397768</v>
+        <v>0.4110597662007076</v>
       </c>
       <c r="J7">
-        <v>0.4307383466397768</v>
+        <v>0.4110597662007077</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P7">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q7">
-        <v>39842.53138611302</v>
+        <v>40105.93938057539</v>
       </c>
       <c r="R7">
-        <v>39842.53138611302</v>
+        <v>360953.4544251785</v>
       </c>
       <c r="S7">
-        <v>0.285757890473237</v>
+        <v>0.2572646323148481</v>
       </c>
       <c r="T7">
-        <v>0.285757890473237</v>
+        <v>0.2572646323148482</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>164.180771392012</v>
+        <v>164.7897643333334</v>
       </c>
       <c r="H8">
-        <v>164.180771392012</v>
+        <v>494.369293</v>
       </c>
       <c r="I8">
-        <v>0.4307383466397768</v>
+        <v>0.4110597662007076</v>
       </c>
       <c r="J8">
-        <v>0.4307383466397768</v>
+        <v>0.4110597662007077</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N8">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q8">
-        <v>14500.68053341683</v>
+        <v>17128.6828751349</v>
       </c>
       <c r="R8">
-        <v>14500.68053341683</v>
+        <v>154158.1458762141</v>
       </c>
       <c r="S8">
-        <v>0.1040015213767214</v>
+        <v>0.1098741076750213</v>
       </c>
       <c r="T8">
-        <v>0.1040015213767214</v>
+        <v>0.1098741076750213</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>164.180771392012</v>
+        <v>164.7897643333334</v>
       </c>
       <c r="H9">
-        <v>164.180771392012</v>
+        <v>494.369293</v>
       </c>
       <c r="I9">
-        <v>0.4307383466397768</v>
+        <v>0.4110597662007076</v>
       </c>
       <c r="J9">
-        <v>0.4307383466397768</v>
+        <v>0.4110597662007077</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N9">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q9">
-        <v>4593.653949395948</v>
+        <v>5507.067826954741</v>
       </c>
       <c r="R9">
-        <v>4593.653949395948</v>
+        <v>49563.61044259267</v>
       </c>
       <c r="S9">
-        <v>0.03294652263487875</v>
+        <v>0.03532578469713218</v>
       </c>
       <c r="T9">
-        <v>0.03294652263487875</v>
+        <v>0.0353257846971322</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>87.9703867403058</v>
+        <v>95.835818</v>
       </c>
       <c r="H10">
-        <v>87.9703867403058</v>
+        <v>287.507454</v>
       </c>
       <c r="I10">
-        <v>0.2307957175283723</v>
+        <v>0.2390576204784642</v>
       </c>
       <c r="J10">
-        <v>0.2307957175283723</v>
+        <v>0.2390576204784643</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N10">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q10">
-        <v>600.079632295083</v>
+        <v>779.2634617394119</v>
       </c>
       <c r="R10">
-        <v>600.079632295083</v>
+        <v>7013.371155654707</v>
       </c>
       <c r="S10">
-        <v>0.004303880398030295</v>
+        <v>0.004998684261161653</v>
       </c>
       <c r="T10">
-        <v>0.004303880398030295</v>
+        <v>0.004998684261161655</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>87.9703867403058</v>
+        <v>95.835818</v>
       </c>
       <c r="H11">
-        <v>87.9703867403058</v>
+        <v>287.507454</v>
       </c>
       <c r="I11">
-        <v>0.2307957175283723</v>
+        <v>0.2390576204784642</v>
       </c>
       <c r="J11">
-        <v>0.2307957175283723</v>
+        <v>0.2390576204784643</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P11">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q11">
-        <v>21348.19361020291</v>
+        <v>23324.17624811411</v>
       </c>
       <c r="R11">
-        <v>21348.19361020291</v>
+        <v>209917.586233027</v>
       </c>
       <c r="S11">
-        <v>0.1531131321036519</v>
+        <v>0.1496158853076016</v>
       </c>
       <c r="T11">
-        <v>0.1531131321036519</v>
+        <v>0.1496158853076017</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>87.9703867403058</v>
+        <v>95.835818</v>
       </c>
       <c r="H12">
-        <v>87.9703867403058</v>
+        <v>287.507454</v>
       </c>
       <c r="I12">
-        <v>0.2307957175283723</v>
+        <v>0.2390576204784642</v>
       </c>
       <c r="J12">
-        <v>0.2307957175283723</v>
+        <v>0.2390576204784643</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N12">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q12">
-        <v>7769.670368258279</v>
+        <v>9961.427769753158</v>
       </c>
       <c r="R12">
-        <v>7769.670368258279</v>
+        <v>89652.84992777841</v>
       </c>
       <c r="S12">
-        <v>0.05572549074730133</v>
+        <v>0.06389884122144945</v>
       </c>
       <c r="T12">
-        <v>0.05572549074730133</v>
+        <v>0.06389884122144947</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>87.9703867403058</v>
+        <v>95.835818</v>
       </c>
       <c r="H13">
-        <v>87.9703867403058</v>
+        <v>287.507454</v>
       </c>
       <c r="I13">
-        <v>0.2307957175283723</v>
+        <v>0.2390576204784642</v>
       </c>
       <c r="J13">
-        <v>0.2307957175283723</v>
+        <v>0.2390576204784643</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N13">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O13">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P13">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q13">
-        <v>2461.344961735001</v>
+        <v>3202.713178896955</v>
       </c>
       <c r="R13">
-        <v>2461.344961735001</v>
+        <v>28824.41861007259</v>
       </c>
       <c r="S13">
-        <v>0.01765321427938873</v>
+        <v>0.02054420968825148</v>
       </c>
       <c r="T13">
-        <v>0.01765321427938873</v>
+        <v>0.02054420968825148</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>42.8859792708027</v>
+        <v>46.93870866666666</v>
       </c>
       <c r="H14">
-        <v>42.8859792708027</v>
+        <v>140.816126</v>
       </c>
       <c r="I14">
-        <v>0.1125140030011581</v>
+        <v>0.117086244332836</v>
       </c>
       <c r="J14">
-        <v>0.1125140030011581</v>
+        <v>0.117086244332836</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N14">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O14">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P14">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q14">
-        <v>292.5416566305342</v>
+        <v>381.6696238264946</v>
       </c>
       <c r="R14">
-        <v>292.5416566305342</v>
+        <v>3435.026614438451</v>
       </c>
       <c r="S14">
-        <v>0.002098162033535465</v>
+        <v>0.002448268185610089</v>
       </c>
       <c r="T14">
-        <v>0.002098162033535465</v>
+        <v>0.00244826818561009</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>42.8859792708027</v>
+        <v>46.93870866666666</v>
       </c>
       <c r="H15">
-        <v>42.8859792708027</v>
+        <v>140.816126</v>
       </c>
       <c r="I15">
-        <v>0.1125140030011581</v>
+        <v>0.117086244332836</v>
       </c>
       <c r="J15">
-        <v>0.1125140030011581</v>
+        <v>0.117086244332836</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P15">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q15">
-        <v>10407.34527334717</v>
+        <v>11423.77387335719</v>
       </c>
       <c r="R15">
-        <v>10407.34527334717</v>
+        <v>102813.9648602147</v>
       </c>
       <c r="S15">
-        <v>0.07464337549031519</v>
+        <v>0.07327924568201552</v>
       </c>
       <c r="T15">
-        <v>0.07464337549031519</v>
+        <v>0.07327924568201555</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>42.8859792708027</v>
+        <v>46.93870866666666</v>
       </c>
       <c r="H16">
-        <v>42.8859792708027</v>
+        <v>140.816126</v>
       </c>
       <c r="I16">
-        <v>0.1125140030011581</v>
+        <v>0.117086244332836</v>
       </c>
       <c r="J16">
-        <v>0.1125140030011581</v>
+        <v>0.117086244332836</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N16">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O16">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P16">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q16">
-        <v>3787.751022827165</v>
+        <v>4878.933218773032</v>
       </c>
       <c r="R16">
-        <v>3787.751022827165</v>
+        <v>43910.39896895729</v>
       </c>
       <c r="S16">
-        <v>0.02716644008965244</v>
+        <v>0.03129653562545066</v>
       </c>
       <c r="T16">
-        <v>0.02716644008965244</v>
+        <v>0.03129653562545068</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>42.8859792708027</v>
+        <v>46.93870866666666</v>
       </c>
       <c r="H17">
-        <v>42.8859792708027</v>
+        <v>140.816126</v>
       </c>
       <c r="I17">
-        <v>0.1125140030011581</v>
+        <v>0.117086244332836</v>
       </c>
       <c r="J17">
-        <v>0.1125140030011581</v>
+        <v>0.117086244332836</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N17">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O17">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P17">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q17">
-        <v>1199.91730079434</v>
+        <v>1568.632938961694</v>
       </c>
       <c r="R17">
-        <v>1199.91730079434</v>
+        <v>14117.69645065525</v>
       </c>
       <c r="S17">
-        <v>0.008606025387655031</v>
+        <v>0.01006219483975967</v>
       </c>
       <c r="T17">
-        <v>0.008606025387655031</v>
+        <v>0.01006219483975967</v>
       </c>
     </row>
   </sheetData>
